--- a/Program/Other/LM080_底稿_B046金融機構承作「公司法人購置住宅貸款」統計表(110.3.19(含)起辦理案件).xlsx
+++ b/Program/Other/LM080_底稿_B046金融機構承作「公司法人購置住宅貸款」統計表(110.3.19(含)起辦理案件).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SKL\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\iTX\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0683520-5C75-4D8D-A79A-9B06883C2AD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0E6E67-E0E1-48F0-89A6-A0AFB5F3E51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOA" sheetId="88" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="50">
   <si>
     <t>加權平均
 貸款成數(%)</t>
@@ -1625,56 +1625,56 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="47" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="27" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1685,16 +1685,16 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1705,14 +1705,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="16" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="22" fillId="25" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1723,81 +1723,75 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="35" fillId="29" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="29" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="29" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="35" fillId="29" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="35" fillId="29" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="35" fillId="29" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="22" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="177" fontId="22" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="178" fontId="22" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1879,9 +1873,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1919,9 +1913,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1954,26 +1948,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2006,26 +1983,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2201,25 +2161,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A551E4CC-C44F-4F18-BE1F-CF742B392009}">
   <dimension ref="A1:BJ24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.109375" style="2" customWidth="1"/>
-    <col min="9" max="12" width="12.33203125" style="2" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="4.44140625" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="17" width="12.33203125" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="62" width="8.88671875" style="2" hidden="1" customWidth="1"/>
-    <col min="63" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="14.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.81640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.08984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.90625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.6328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.08984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.08984375" style="2" customWidth="1"/>
+    <col min="9" max="12" width="12.36328125" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="4.453125" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="17" width="12.36328125" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="62" width="8.90625" style="2" hidden="1" customWidth="1"/>
+    <col min="63" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="36" customHeight="1">
@@ -2227,29 +2187,29 @@
         <f>IF(COUNTBLANK(G7:G14)=8,"","本表有誤")</f>
         <v/>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
       <c r="BA1" s="3" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(D3," ",""),"　","")</f>
-        <v>民國年月</v>
-      </c>
-      <c r="BB1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BB1" s="3" t="e">
         <f>LEFT(BA1,FIND("月",BA1,1))</f>
-        <v>民國年月</v>
-      </c>
-      <c r="BC1" s="4" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BC1" s="4" t="e">
         <f>MID(BA1,FIND("民國",BA1,1)+2,FIND("年",BA1,1)-FIND("民國",BA1,1)-2)</f>
-        <v/>
-      </c>
-      <c r="BD1" s="4" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BD1" s="4" t="e">
         <f>MID(BA1,FIND("年",BA1,1)+1,FIND("月",BA1,1)-FIND("年",BA1,1)-1)</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="BE1" s="4" t="e">
         <f>(BC1+1911) &amp; RIGHT("0" &amp; BD1,2)</f>
@@ -2275,56 +2235,54 @@
       <c r="C2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
     </row>
     <row r="3" spans="1:62" ht="27" customHeight="1">
       <c r="C3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="46"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:62" ht="18" customHeight="1">
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="47"/>
-    </row>
-    <row r="5" spans="1:62" ht="16.2">
-      <c r="A5" s="48" t="s">
+      <c r="J4" s="46"/>
+    </row>
+    <row r="5" spans="1:62" ht="17">
+      <c r="A5" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="52" t="s">
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="43"/>
-      <c r="N5" s="41" t="s">
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="41"/>
+      <c r="N5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="43"/>
-    </row>
-    <row r="6" spans="1:62" s="12" customFormat="1" ht="48.6">
-      <c r="A6" s="49"/>
-      <c r="B6" s="51"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="41"/>
+    </row>
+    <row r="6" spans="1:62" s="12" customFormat="1" ht="51">
+      <c r="A6" s="48"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="9" t="s">
         <v>26</v>
       </c>
@@ -2337,7 +2295,7 @@
       <c r="F6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="52"/>
+      <c r="G6" s="51"/>
       <c r="I6" s="13" t="s">
         <v>35</v>
       </c>
@@ -2370,10 +2328,18 @@
       <c r="B7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
+      <c r="C7" s="35">
+        <v>0</v>
+      </c>
+      <c r="D7" s="36">
+        <v>0</v>
+      </c>
+      <c r="E7" s="37">
+        <v>0</v>
+      </c>
+      <c r="F7" s="38">
+        <v>0</v>
+      </c>
       <c r="G7" s="30" t="str">
         <f>I7&amp;J7&amp;K7&amp;L7&amp;P7</f>
         <v/>
@@ -2406,10 +2372,18 @@
       <c r="B8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40"/>
+      <c r="C8" s="35">
+        <v>0</v>
+      </c>
+      <c r="D8" s="36">
+        <v>0</v>
+      </c>
+      <c r="E8" s="37">
+        <v>0</v>
+      </c>
+      <c r="F8" s="38">
+        <v>0</v>
+      </c>
       <c r="G8" s="30" t="str">
         <f t="shared" ref="G8:G13" si="5">I8&amp;J8&amp;K8&amp;L8&amp;P8</f>
         <v/>
@@ -2442,10 +2416,18 @@
       <c r="B9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
+      <c r="C9" s="35">
+        <v>0</v>
+      </c>
+      <c r="D9" s="36">
+        <v>0</v>
+      </c>
+      <c r="E9" s="37">
+        <v>0</v>
+      </c>
+      <c r="F9" s="38">
+        <v>0</v>
+      </c>
       <c r="G9" s="30" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2478,10 +2460,18 @@
       <c r="B10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
+      <c r="C10" s="35">
+        <v>0</v>
+      </c>
+      <c r="D10" s="36">
+        <v>0</v>
+      </c>
+      <c r="E10" s="37">
+        <v>0</v>
+      </c>
+      <c r="F10" s="38">
+        <v>0</v>
+      </c>
       <c r="G10" s="30" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2514,10 +2504,18 @@
       <c r="B11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="40"/>
+      <c r="C11" s="35">
+        <v>0</v>
+      </c>
+      <c r="D11" s="36">
+        <v>0</v>
+      </c>
+      <c r="E11" s="37">
+        <v>0</v>
+      </c>
+      <c r="F11" s="38">
+        <v>0</v>
+      </c>
       <c r="G11" s="30" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2550,10 +2548,18 @@
       <c r="B12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
+      <c r="C12" s="35">
+        <v>0</v>
+      </c>
+      <c r="D12" s="36">
+        <v>0</v>
+      </c>
+      <c r="E12" s="37">
+        <v>0</v>
+      </c>
+      <c r="F12" s="38">
+        <v>0</v>
+      </c>
       <c r="G12" s="30" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2586,10 +2592,18 @@
       <c r="B13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40"/>
+      <c r="C13" s="35">
+        <v>0</v>
+      </c>
+      <c r="D13" s="36">
+        <v>0</v>
+      </c>
+      <c r="E13" s="37">
+        <v>0</v>
+      </c>
+      <c r="F13" s="38">
+        <v>0</v>
+      </c>
       <c r="G13" s="30" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2676,87 +2690,87 @@
       </c>
     </row>
     <row r="15" spans="1:62" ht="69" customHeight="1">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
     </row>
     <row r="16" spans="1:62" s="25" customFormat="1" ht="24" customHeight="1">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="45"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="23"/>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="31" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="24"/>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="31" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:7" s="25" customFormat="1" ht="24" customHeight="1">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="45"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="23"/>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="31" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="24"/>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="31" t="s">
         <v>4</v>
       </c>
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" s="25" customFormat="1" ht="24" customHeight="1">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="45"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="26"/>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="31" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="24"/>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="31" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" ht="16.2">
-      <c r="A19" s="35" t="s">
+    <row r="19" spans="1:7" ht="17">
+      <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.2">
+    <row r="20" spans="1:7" ht="17">
       <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.2">
-      <c r="A21" s="35" t="s">
+    <row r="21" spans="1:7" ht="17">
+      <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.2">
+    <row r="22" spans="1:7" ht="17">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.2">
+    <row r="23" spans="1:7" ht="17">
       <c r="A23" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.2">
+    <row r="24" spans="1:7" ht="17">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -2794,22 +2808,22 @@
       <selection activeCell="C5" sqref="C5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.109375" style="2" customWidth="1"/>
-    <col min="9" max="12" width="12.33203125" style="2" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="4.44140625" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="17" width="12.33203125" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="62" width="8.88671875" style="2" hidden="1" customWidth="1"/>
-    <col min="63" max="63" width="8.88671875" style="2" customWidth="1"/>
-    <col min="64" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="14.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.81640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.08984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.90625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.6328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.08984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.08984375" style="2" customWidth="1"/>
+    <col min="9" max="12" width="12.36328125" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="4.453125" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="17" width="12.36328125" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="62" width="8.90625" style="2" hidden="1" customWidth="1"/>
+    <col min="63" max="63" width="8.90625" style="2" customWidth="1"/>
+    <col min="64" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="36" customHeight="1">
@@ -2817,14 +2831,14 @@
         <f>IF(COUNTBLANK(G7:G14)=8,"","本表有誤")</f>
         <v/>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
       <c r="BA1" s="3" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(D3," ",""),"　","")</f>
         <v>民國年月</v>
@@ -2865,56 +2879,56 @@
       <c r="C2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:62" ht="27" customHeight="1">
       <c r="C3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="54"/>
+      <c r="E3" s="52"/>
     </row>
     <row r="4" spans="1:62" ht="18" customHeight="1">
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="47"/>
-    </row>
-    <row r="5" spans="1:62" ht="16.2">
-      <c r="A5" s="48" t="s">
+      <c r="J4" s="46"/>
+    </row>
+    <row r="5" spans="1:62" ht="17">
+      <c r="A5" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="52" t="s">
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="43"/>
-      <c r="N5" s="41" t="s">
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="41"/>
+      <c r="N5" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="43"/>
-    </row>
-    <row r="6" spans="1:62" s="12" customFormat="1" ht="48.6">
-      <c r="A6" s="49"/>
-      <c r="B6" s="51"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="41"/>
+    </row>
+    <row r="6" spans="1:62" s="12" customFormat="1" ht="51">
+      <c r="A6" s="48"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="9" t="s">
         <v>26</v>
       </c>
@@ -2927,7 +2941,7 @@
       <c r="F6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="52"/>
+      <c r="G6" s="51"/>
       <c r="I6" s="13" t="s">
         <v>35</v>
       </c>
@@ -3266,21 +3280,21 @@
       </c>
     </row>
     <row r="15" spans="1:62" ht="69" customHeight="1">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
     </row>
     <row r="16" spans="1:62" s="25" customFormat="1" ht="24" customHeight="1">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="45"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="23"/>
       <c r="D16" s="31" t="s">
         <v>3</v>
@@ -3292,10 +3306,10 @@
       <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:7" s="25" customFormat="1" ht="24" customHeight="1">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="45"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="23"/>
       <c r="D17" s="31" t="s">
         <v>4</v>
@@ -3307,10 +3321,10 @@
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" s="25" customFormat="1" ht="24" customHeight="1">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="45"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="26"/>
       <c r="D18" s="31" t="s">
         <v>5</v>
@@ -3321,32 +3335,32 @@
       </c>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" ht="16.2">
-      <c r="A19" s="35" t="s">
+    <row r="19" spans="1:7" ht="17">
+      <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.2">
+    <row r="20" spans="1:7" ht="17">
       <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.2">
-      <c r="A21" s="35" t="s">
+    <row r="21" spans="1:7" ht="17">
+      <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.2">
+    <row r="22" spans="1:7" ht="17">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.2">
+    <row r="23" spans="1:7" ht="17">
       <c r="A23" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.2">
+    <row r="24" spans="1:7" ht="17">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
